--- a/src/data/winter23/bios_winter23.xlsx
+++ b/src/data/winter23/bios_winter23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\winter23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A24F3A-2C36-4DB0-BC26-786B51E6AED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A25C18-B248-43F4-B9C7-882CB0286D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="690" windowWidth="25680" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="507">
   <si>
     <t>Timestamp</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Finance, Consulting</t>
   </si>
   <si>
-    <t>Finance Intern at Facebook</t>
-  </si>
-  <si>
     <t>UFA, Tri Delta</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Private Equity, Consulting, Finance</t>
   </si>
   <si>
-    <t>Private Equity Summer Analyst at The Everstone Group</t>
-  </si>
-  <si>
     <t>SCNO, MAISS, UCI Esports, Quokka Brew Ambassadors</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t>Sales and Trading</t>
   </si>
   <si>
-    <t>Private Equity Investment Intern at Pathway Capital Management</t>
-  </si>
-  <si>
     <t>Undergraduate Finance Association, Student-Managed Investment Fund, Irvine Banking Society</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>Investment Banking</t>
   </si>
   <si>
-    <t>Investment Banking Summer Analyst at Deutsche Bank</t>
-  </si>
-  <si>
     <t>Jenny</t>
   </si>
   <si>
@@ -520,9 +508,6 @@
     <t>julie_luu</t>
   </si>
   <si>
-    <t>Business Strategy &amp; Marketing Intern at Autodesk</t>
-  </si>
-  <si>
     <t>ASUCI Marketing Strategy Intern ('21-22), MUSA VP of Communications ('20-21), MUSA Representative ('19-20)</t>
   </si>
   <si>
@@ -556,12 +541,6 @@
     <t>kevin_cao</t>
   </si>
   <si>
-    <t>Consulting, Software Engineering</t>
-  </si>
-  <si>
-    <t>Social Media Manager Intern at OPTIS Group Holdings</t>
-  </si>
-  <si>
     <t>ASUCI, MUSA, SCNO</t>
   </si>
   <si>
@@ -589,9 +568,6 @@
     <t>Product Marketing</t>
   </si>
   <si>
-    <t>Founder at A Drop of Delight</t>
-  </si>
-  <si>
     <t>MAISS, Hack at UCI, UCI Alumni Association</t>
   </si>
   <si>
@@ -616,9 +592,6 @@
     <t>SuZhou, China; Temple City, CA</t>
   </si>
   <si>
-    <t>Portfolio Analyst Intern at Wells Fargo Advisors</t>
-  </si>
-  <si>
     <t>Undergraduate Finance Association, Undergraduate Business Association</t>
   </si>
   <si>
@@ -629,9 +602,6 @@
   </si>
   <si>
     <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Acquisition Analyst at Next Wave Investors</t>
   </si>
   <si>
     <t>Irvine Banking Society</t>
@@ -695,9 +665,6 @@
     <t>Consulting, Finance</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer Research Consulting Intern at Linda S. Congleton &amp; Associates </t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/tommytruong482/</t>
   </si>
   <si>
@@ -722,9 +689,6 @@
     <t>yeseohan@ucidsp.com</t>
   </si>
   <si>
-    <t>Social Media Intern at J.ING</t>
-  </si>
-  <si>
     <t>Nathan</t>
   </si>
   <si>
@@ -764,9 +728,6 @@
     <t>Consulting, Investing</t>
   </si>
   <si>
-    <t>Risk and Financial Advisory Intern at Deloitte</t>
-  </si>
-  <si>
     <t>Dragon Boat Race Team</t>
   </si>
   <si>
@@ -788,9 +749,6 @@
     <t>Basking Ridge, NJ</t>
   </si>
   <si>
-    <t>Investment Banking, Finance, Esports</t>
-  </si>
-  <si>
     <t>foresthuang@ucidsp.com</t>
   </si>
   <si>
@@ -809,9 +767,6 @@
     <t>Portland, OR</t>
   </si>
   <si>
-    <t>MUSA Representatives</t>
-  </si>
-  <si>
     <t>julialin@ucidsp.com</t>
   </si>
   <si>
@@ -920,12 +875,6 @@
     <t>andrewdoan@ucidsp.com</t>
   </si>
   <si>
-    <t>Product Association, ASUCI</t>
-  </si>
-  <si>
-    <t>Partner at California Crescent Fund</t>
-  </si>
-  <si>
     <t>Anthropology, Digital Information Systems</t>
   </si>
   <si>
@@ -941,9 +890,6 @@
     <t>My name is Grace and I initiated fall my freshman year with the Alpha Iotas! I'm extremely stoked to meet all of you :) Ask me about my favorite books, work life balance, rollerskating, night life in NY, travel, makeup and fashion! Reach out with any questions, would love to chat!</t>
   </si>
   <si>
-    <t>Venture Capital and Business Analytic Extern at HP Tech Ventures</t>
-  </si>
-  <si>
     <t>Real Estate Association, Sigma Chi, RUF</t>
   </si>
   <si>
@@ -953,12 +899,6 @@
     <t>Hi! My name is Dylan, and I initiated in the spring quarter of my first year. In my free time, I enjoy playing volleyball, basketball, and Valorant. Feel free to ask me about cars, options trading, and random stuff. Looking forward to seeing you :)</t>
   </si>
   <si>
-    <t>Intern at Linda S. Congleton &amp; Associates</t>
-  </si>
-  <si>
-    <t>Incoming Educator at Lululemon</t>
-  </si>
-  <si>
     <t>Sports Business Association</t>
   </si>
   <si>
@@ -968,12 +908,6 @@
     <t>Product Design, Product Management</t>
   </si>
   <si>
-    <t>UCI Athletics Marketing Intern</t>
-  </si>
-  <si>
-    <t>Product Design Lead at Product Association</t>
-  </si>
-  <si>
     <t>Jorina</t>
   </si>
   <si>
@@ -986,12 +920,6 @@
     <t>Alpha Nu</t>
   </si>
   <si>
-    <t>Innovation and Entrepreneurship</t>
-  </si>
-  <si>
-    <t>UX Research Intern at Zendesk</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/jorinachen</t>
   </si>
   <si>
@@ -1019,9 +947,6 @@
     <t>Accounting, Finance</t>
   </si>
   <si>
-    <t>Accounting Project Associate at First Foundation Bank</t>
-  </si>
-  <si>
     <t>Hi!! My name is Haley and I initiated in the spring of my sophomore year with the Alpha Nu class. In my free time, I enjoy swimming, reading, trying new food/boba places, and taking film photos. Feel free to ask me about my boba blog, favorite books, or anything else at recruitment!</t>
   </si>
   <si>
@@ -1064,24 +989,12 @@
     <t>aryan_bajaria</t>
   </si>
   <si>
-    <t>Real Estate, Consulting, Venture Capital</t>
-  </si>
-  <si>
-    <t>Keller Williams Realty Firm</t>
-  </si>
-  <si>
-    <t>REA, Mesa Court Housing, Sigma Chi</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/aryanbajaria/</t>
   </si>
   <si>
     <t>aryanbajaria@ucidsp.com</t>
   </si>
   <si>
-    <t>Hello! My name is Aryan, and I initiated spring quarter of my freshman year with the Alpha Nu class! In my free time, you will find me exploring nature, staying active at the gym, playing soccer, or exploring new areas. A fun fact about me is that I stuck my finger in a blender when I was a kid. Ask me about Formula 1 or my passion for cars at recruitment, I look forward to meeting you!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Madeline </t>
   </si>
   <si>
@@ -1103,21 +1016,12 @@
     <t>Film and Media Studies</t>
   </si>
   <si>
-    <t>Marketing, Public Relations, Consulting</t>
-  </si>
-  <si>
-    <t>UUMP</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/madeline-li-b4959a1a5/</t>
   </si>
   <si>
     <t>madelineli@ucidsp.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi! My name is Maddie and I initiated the spring quarter of my second year with the Alpha Nu class. In my free time, you can find me at the ARC playing volleyball or watching tv/movies. Feel free to ask me about my favorite animal or my 150+ Spotify playlists at recruitment! </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jin </t>
   </si>
   <si>
@@ -1160,9 +1064,6 @@
     <t>Marketing, HR</t>
   </si>
   <si>
-    <t>Marketing Intern for KUCI 88.9 FM</t>
-  </si>
-  <si>
     <t>MUSA, Marketing Association, Art History Undergraduate Association, Model UN, KUCI 88.9 FM</t>
   </si>
   <si>
@@ -1202,54 +1103,30 @@
     <t>Domestic Media Marketing Intern @ Paramount Pictures Brand Development</t>
   </si>
   <si>
-    <t>Innovation and Entrepreneurship, Sociology</t>
-  </si>
-  <si>
     <t>Hey there! My name is Andrew and I initiated in Fall 2021 with the Alpha Mus. Professionally, I'm super interested in all things product, especially design! Beyond that, I love dance, art, poetry, music festivals, traveling, and good company. Looking forward to meeting you at recruitment :)</t>
   </si>
   <si>
-    <t>Software Developer at LinQuest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance/Business Operations Acquisition Intern at NASA Jet Propulsion Laboratory </t>
-  </si>
-  <si>
     <t>Amazon Prime Campus Ambassador, Campus Representatives, Red Bull Student Marketeer</t>
   </si>
   <si>
     <t>Hi! My name is Julia and I initiated in the fall of my freshman year with the Alpha Mu class. Some fun facts about me are that I’m a little bit of a shopaholic and that you might see me around campus giving tours since I’m a tour guide for UCI. Ask me about my favorite flavor of Red Bull or anything at recruitment :-)</t>
   </si>
   <si>
-    <t>Change Management Operations Intern at PayPal</t>
-  </si>
-  <si>
     <t xml:space="preserve">HRMA, Student Assistant at Paul Merage Specialty Masters Program, MUSA Representative </t>
   </si>
   <si>
-    <t>HR Intern at Kaiser Permanente</t>
-  </si>
-  <si>
-    <t>Finance Extern at Apple; Client Group Intern at Wellington</t>
-  </si>
-  <si>
     <t>Hi!! My name is Winnie and I initiated fall quarter of my second year with the Alpha Mu class. In my free time, I love playing basketball, trying new food spots, hammocking in Aldrich, and binge-watching architectural digest vids! Fun fact I've made 218+ Spotify playlists over the years! See you at recruitment :)</t>
   </si>
   <si>
     <t>Software Engineering, Finance</t>
   </si>
   <si>
-    <t>Software Engineering Intern at Duck Creek Technologies</t>
-  </si>
-  <si>
     <t>Association for Computing Machinery</t>
   </si>
   <si>
     <t>Public Health &amp; Management</t>
   </si>
   <si>
-    <t>Universal Pictures CampusU Marketing Representative</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAISS, President of Marketing Association ('21-'22) </t>
   </si>
   <si>
@@ -1259,18 +1136,12 @@
     <t xml:space="preserve">Finance, Product Management </t>
   </si>
   <si>
-    <t>Product Development Intern at Billabong</t>
-  </si>
-  <si>
     <t>MUSA; Associate</t>
   </si>
   <si>
     <t>Hi! My name is Jake and I initiated in the fall of my freshman year with the Alpha Mu class. In my free time I enjoy surfing, playing tennis and listening to music. Ask me about my favorite comedians, or anything at recruitment!</t>
   </si>
   <si>
-    <t>Consulting Summer Scholar Intern at Deloitte</t>
-  </si>
-  <si>
     <t>ASUCI Media &amp; Technology Commission, Merage Specialty Masters Student Assistant, Product Association Fellowship</t>
   </si>
   <si>
@@ -1542,6 +1413,135 @@
   </si>
   <si>
     <t>Product Management, Marketing</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Commit the Change, Product Association</t>
+  </si>
+  <si>
+    <t>Marketing, Product Management, Public Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campus Recreation, UC Irvine Club Volleyball, UUMP </t>
+  </si>
+  <si>
+    <t>Hi! My name is Maddie and I initiated the spring quarter of my second year with the Alpha Nu class. In my free time, you can find me at the ARC playing volleyball or watching tv/movies. Feel free to ask me about my favorite animal or my 150+ Spotify playlists at recruitment.</t>
+  </si>
+  <si>
+    <t>Health Informatics, Innovation and Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Information &amp; Computer Science</t>
+  </si>
+  <si>
+    <t>Consulting, Esports/Gaming, Product Management</t>
+  </si>
+  <si>
+    <t>180 Degrees Consulting, MUSA Representative</t>
+  </si>
+  <si>
+    <t>UCI ANTrepreneur Center, Mesa Court Housing, Sigma Chi, REA</t>
+  </si>
+  <si>
+    <t>Hello! My name is Aryan, and I initiated the spring quarter of my freshman year with the Alpha Nu class! In my free time, you will find me exploring nature, staying active at the gym, and playing soccer. A fun fact about me is that I stuck my finger in a blender when I was a kid. Ask me about Formula 1 or my passion for cars at recruitment, I look forward to meeting you!</t>
+  </si>
+  <si>
+    <t>Vice President of Technology @ MUSA</t>
+  </si>
+  <si>
+    <t>Consulting Summer Scholar Intern @ Deloitte</t>
+  </si>
+  <si>
+    <t>Project Manager @ Modulim</t>
+  </si>
+  <si>
+    <t>Marketing Intern @ UCI Athletics</t>
+  </si>
+  <si>
+    <t>UX Research Intern @ Zendesk</t>
+  </si>
+  <si>
+    <t>Marketing Intern @ KUCI 88.9 FM</t>
+  </si>
+  <si>
+    <t>Software Engineering Intern @ Duck Creek Technologies</t>
+  </si>
+  <si>
+    <t>UX Design Intern @ The Good</t>
+  </si>
+  <si>
+    <t>Risk and Financial Advisory Intern @ Deloitte</t>
+  </si>
+  <si>
+    <t>Private Equity Investment Intern @ Pathway Capital Management</t>
+  </si>
+  <si>
+    <t>Social Media Intern @ J.ING</t>
+  </si>
+  <si>
+    <t>Project Management Intern @ CBRE</t>
+  </si>
+  <si>
+    <t>CampusU Marketing Representative @ Universal Pictures</t>
+  </si>
+  <si>
+    <t>Venture Capital and Business Analytic Extern @ HP Tech Ventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance/Business Operations Acquisition Intern @ NASA Jet Propulsion Laboratory </t>
+  </si>
+  <si>
+    <t>Business Strategy &amp; Marketing Intern @ Autodesk</t>
+  </si>
+  <si>
+    <t>Incoming Educator @ Lululemon</t>
+  </si>
+  <si>
+    <t>Product Development Intern @ Billabong</t>
+  </si>
+  <si>
+    <t>Partner @ California Crescent Fund</t>
+  </si>
+  <si>
+    <t>Finance Extern @ Apple; Client Group Intern @ Wellington</t>
+  </si>
+  <si>
+    <t>Private Equity Summer Analyst @ The Everstone Group</t>
+  </si>
+  <si>
+    <t>Intern @ Linda S. Congleton &amp; Associates</t>
+  </si>
+  <si>
+    <t>Change Management Operations Intern @ PayPal</t>
+  </si>
+  <si>
+    <t>Investment Banking Summer Analyst @ Deutsche Bank</t>
+  </si>
+  <si>
+    <t>Acquisition Analyst @ Next Wave Investors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Research Consulting Intern @ Linda S. Congleton &amp; Associates </t>
+  </si>
+  <si>
+    <t>Accounting Project Associate @ First Foundation Bank</t>
+  </si>
+  <si>
+    <t>Portfolio Analyst Intern @ Wells Fargo Advisors</t>
+  </si>
+  <si>
+    <t>Finance Intern @ Facebook</t>
+  </si>
+  <si>
+    <t>Software Developer @ LinQuest</t>
+  </si>
+  <si>
+    <t>HR Intern @ Kaiser Permanente</t>
+  </si>
+  <si>
+    <t>Founder @ A Drop of Delight</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1984,10 +1984,10 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2062,32 +2062,32 @@
         <v>44404.516250000001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>315</v>
+        <v>478</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -2096,60 +2096,60 @@
         <v>67</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>352</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2163,7 +2163,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -2181,13 +2181,13 @@
         <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>47</v>
@@ -2199,7 +2199,7 @@
         <v>79</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2207,13 +2207,13 @@
         <v>44404.857893518521</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>91</v>
@@ -2225,43 +2225,43 @@
         <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>179</v>
+        <v>475</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
@@ -2273,89 +2273,89 @@
         <v>50</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>322</v>
+        <v>479</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -2370,25 +2370,25 @@
         <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="M8" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2396,47 +2396,47 @@
         <v>44404.653217592589</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2444,108 +2444,108 @@
         <v>44397.382604166669</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>299</v>
+        <v>465</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>23</v>
@@ -2560,25 +2560,25 @@
         <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>247</v>
+        <v>483</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2586,13 +2586,13 @@
         <v>44396.99622685185</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>91</v>
@@ -2601,34 +2601,34 @@
         <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2636,13 +2636,13 @@
         <v>44397.802523148152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>91</v>
@@ -2658,10 +2658,10 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>233</v>
+        <v>485</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>41</v>
@@ -2670,39 +2670,39 @@
         <v>57</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>31</v>
@@ -2714,57 +2714,60 @@
         <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I16" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>255</v>
+        <v>471</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>486</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2772,16 +2775,16 @@
         <v>44398.992349537039</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>23</v>
@@ -2793,169 +2796,169 @@
         <v>35</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>306</v>
+        <v>488</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>360</v>
+        <v>466</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>364</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N20" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -2969,7 +2972,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
@@ -2990,10 +2993,10 @@
         <v>30</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>166</v>
+        <v>490</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>49</v>
@@ -3005,98 +3008,98 @@
         <v>80</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>311</v>
+        <v>491</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="N22" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3110,7 +3113,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -3129,10 +3132,10 @@
         <v>30</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>32</v>
@@ -3144,7 +3147,7 @@
         <v>81</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3152,13 +3155,13 @@
         <v>44396.99490740741</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>91</v>
@@ -3173,48 +3176,48 @@
         <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>300</v>
+        <v>493</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>24</v>
@@ -3224,22 +3227,22 @@
         <v>92</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="N26" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -3268,16 +3271,16 @@
         <v>19</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>20</v>
@@ -3289,7 +3292,7 @@
         <v>82</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3297,16 +3300,16 @@
         <v>44409.99291666667</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>40</v>
@@ -3319,10 +3322,10 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>310</v>
+        <v>496</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>31</v>
@@ -3331,13 +3334,13 @@
         <v>67</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,7 +3354,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -3366,16 +3369,16 @@
         <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>399</v>
+        <v>497</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>26</v>
@@ -3387,7 +3390,7 @@
         <v>83</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3401,7 +3404,7 @@
         <v>53</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -3419,13 +3422,13 @@
         <v>54</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>149</v>
+        <v>498</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>45</v>
@@ -3437,7 +3440,7 @@
         <v>84</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3451,7 +3454,7 @@
         <v>76</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -3467,13 +3470,13 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>203</v>
+        <v>499</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>57</v>
@@ -3485,7 +3488,7 @@
         <v>85</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3493,63 +3496,63 @@
         <v>44404.80846064815</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>224</v>
+        <v>500</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>40</v>
@@ -3561,13 +3564,13 @@
         <v>35</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>332</v>
+        <v>501</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>31</v>
@@ -3576,13 +3579,13 @@
         <v>47</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3596,7 +3599,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -3605,7 +3608,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>35</v>
@@ -3615,10 +3618,10 @@
         <v>25</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>198</v>
+        <v>502</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>26</v>
@@ -3630,7 +3633,7 @@
         <v>86</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3659,28 +3662,28 @@
         <v>24</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3688,13 +3691,13 @@
         <v>44397.036516203705</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>91</v>
@@ -3703,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>43</v>
@@ -3713,7 +3716,7 @@
         <v>44</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>395</v>
+        <v>504</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>41</v>
@@ -3722,13 +3725,13 @@
         <v>26</v>
       </c>
       <c r="N36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3736,22 +3739,22 @@
         <v>44411.776064814818</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>24</v>
@@ -3761,69 +3764,69 @@
         <v>56</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>401</v>
+        <v>505</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3831,13 +3834,13 @@
         <v>44405.648368055554</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -3846,34 +3849,34 @@
         <v>40</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>189</v>
+        <v>506</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3881,13 +3884,13 @@
         <v>44396.946180555555</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>91</v>
@@ -3899,225 +3902,225 @@
         <v>38</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>92</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N41" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="M42" s="12" t="s">
         <v>26</v>
       </c>
       <c r="N42" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="M43" t="s">
         <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>460</v>
+        <v>417</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N44" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>48</v>
@@ -4126,51 +4129,51 @@
         <v>24</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N45" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>30</v>
@@ -4179,127 +4182,127 @@
         <v>31</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="M46" s="12" t="s">
         <v>49</v>
       </c>
       <c r="N46" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>67</v>
       </c>
       <c r="N47" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>26</v>
       </c>
       <c r="N48" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>24</v>
@@ -4308,25 +4311,25 @@
         <v>65</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="M49" s="12" t="s">
         <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>499</v>
+        <v>456</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/winter23/bios_winter23.xlsx
+++ b/src/data/winter23/bios_winter23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\winter23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A25C18-B248-43F4-B9C7-882CB0286D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC2842-35E0-42BA-9E71-D8CA2552216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="690" windowWidth="25680" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1984,10 +1984,10 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2250,109 +2250,106 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>296</v>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>383</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>392</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>345</v>
+        <v>469</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>298</v>
@@ -2361,474 +2358,468 @@
         <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>44404.653217592589</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
+        <v>44404.653217592589</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>44397.382604166669</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" t="s">
-        <v>298</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>426</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" t="s">
-        <v>275</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>44396.99622685185</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>129</v>
+      <c r="N13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>130</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>44397.802523148152</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>275</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>44396.99622685185</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>484</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>274</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>258</v>
+        <v>26</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>44397.802523148152</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>470</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>471</v>
+        <v>219</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>472</v>
+        <v>41</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>273</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>57</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>44398.992349537039</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>367</v>
+        <v>24</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>487</v>
+        <v>31</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>168</v>
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>274</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>225</v>
@@ -2837,233 +2828,233 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>454</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>44398.992349537039</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" t="s">
-        <v>271</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E19" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" t="s">
-        <v>272</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>44404.807638888888</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>162</v>
+        <v>228</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="N21" t="s">
+        <v>271</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>225</v>
+        <v>326</v>
+      </c>
+      <c r="E22" t="s">
+        <v>298</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>35</v>
+        <v>329</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>491</v>
+        <v>31</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>292</v>
+        <v>467</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" t="s">
-        <v>276</v>
+        <v>47</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>225</v>
@@ -3072,48 +3063,48 @@
         <v>17</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>370</v>
+        <v>92</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>44409.75885416667</v>
+        <v>44404.807638888888</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>16</v>
@@ -3122,239 +3113,233 @@
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" t="s">
+        <v>276</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" t="s">
+        <v>413</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>44396.99490740741</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" t="s">
-        <v>278</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>44411.590104166666</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>82</v>
+      <c r="N27" t="s">
+        <v>277</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>101</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>44409.99291666667</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>139</v>
+      <c r="B28" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>140</v>
+        <v>460</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>461</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>382</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>143</v>
+      <c r="G28" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>454</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>456</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>291</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>44397.626064814816</v>
+        <v>44409.75885416667</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
@@ -3363,1015 +3348,1030 @@
         <v>23</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>497</v>
+        <v>359</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>363</v>
+        <v>103</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>44411.616377314815</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>288</v>
+      <c r="N30" t="s">
+        <v>386</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>44413.04755787037</v>
+        <v>44396.99490740741</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>44411.590104166666</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>44404.80846064815</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L33" s="2" t="s">
+      <c r="J34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>44396.959282407406</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>86</v>
+      <c r="L34" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" t="s">
+        <v>433</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>432</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>191</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>44410.840196759258</v>
+        <v>44409.99291666667</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>44397.036516203705</v>
+        <v>44397.626064814816</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="J36" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>121</v>
+      <c r="N36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>44411.776064814818</v>
+        <v>44411.616377314815</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="J37" s="2" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>151</v>
+        <v>45</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>44413.04755787037</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>352</v>
+        <v>192</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>306</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>376</v>
+        <v>193</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>357</v>
+        <v>57</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>358</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>44405.648368055554</v>
-      </c>
       <c r="B39" s="2" t="s">
-        <v>177</v>
+        <v>435</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>179</v>
+        <v>437</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>382</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>184</v>
+      <c r="J39" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" t="s">
+        <v>443</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>44396.946180555555</v>
+        <v>44404.80846064815</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="J40" s="2" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="J41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>44396.959282407406</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>44410.840196759258</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" t="s">
-        <v>386</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42" t="s">
-        <v>392</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+      <c r="K43" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="M43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" t="s">
-        <v>404</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>382</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>410</v>
+        <v>401</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="M44" t="s">
+        <v>32</v>
       </c>
       <c r="N44" t="s">
-        <v>413</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>414</v>
+        <v>404</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>419</v>
+      <c r="A45" s="3">
+        <v>44397.036516203705</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44411.776064814818</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" t="s">
-        <v>426</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="P45" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N46" t="s">
-        <v>433</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>432</v>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>431</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>435</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>436</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="H47" s="12" t="s">
+      <c r="G47" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>44405.648368055554</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N47" t="s">
-        <v>443</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="M48" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" t="s">
-        <v>454</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>453</v>
+      <c r="I48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="12" t="s">
-        <v>455</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>44396.946180555555</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>460</v>
+        <v>154</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>461</v>
+        <v>155</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="M49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N49" t="s">
-        <v>454</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>456</v>
+      <c r="N49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>457</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P40">
-    <sortCondition ref="C2:C40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P49">
+    <sortCondition ref="C2:C49"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="O18" r:id="rId1" xr:uid="{9E307C65-887C-5044-8DB8-E71EB3F10045}"/>
-    <hyperlink ref="O12" r:id="rId2" xr:uid="{4A81FE9A-EBAB-0747-B2F3-61D7490B1D68}"/>
-    <hyperlink ref="O16" r:id="rId3" xr:uid="{448DA057-37C3-3B4D-9D30-C27C2FD902D3}"/>
-    <hyperlink ref="O20" r:id="rId4" xr:uid="{85DCA030-31D8-4740-B777-FBA97285460E}"/>
-    <hyperlink ref="O23" r:id="rId5" xr:uid="{5A40EFE8-502D-2149-ACBE-311EA5579DF3}"/>
-    <hyperlink ref="O15" r:id="rId6" xr:uid="{7E0B92DD-CBCC-8F46-B940-A199BDE9BF18}"/>
-    <hyperlink ref="O22" r:id="rId7" xr:uid="{6A6E0364-629D-FF44-817A-6C9F4E3C32C0}"/>
-    <hyperlink ref="O26" r:id="rId8" xr:uid="{7DAAB33D-9347-8F48-A5B6-88CA9022F3F4}"/>
-    <hyperlink ref="N10" r:id="rId9" xr:uid="{3FEE33F3-63FD-49C4-92AB-1042A2591AA6}"/>
-    <hyperlink ref="O10" r:id="rId10" xr:uid="{7CBE67B6-B9B5-45EE-9470-F4AA5E5FF358}"/>
-    <hyperlink ref="N6" r:id="rId11" xr:uid="{7712592D-C212-4A93-BA25-D4658CFA663A}"/>
-    <hyperlink ref="O6" r:id="rId12" xr:uid="{E70F50EC-A19F-4DA1-9215-7A17F732F801}"/>
-    <hyperlink ref="N33" r:id="rId13" xr:uid="{56DE9EB8-7714-4395-9CD4-AF9B7F618754}"/>
-    <hyperlink ref="O33" r:id="rId14" xr:uid="{C79E0D61-6BF8-4D23-9016-8FA43E7BA486}"/>
-    <hyperlink ref="N8" r:id="rId15" xr:uid="{5B38EE64-6D4D-430D-9621-00ED2C8B8D7A}"/>
-    <hyperlink ref="O8" r:id="rId16" xr:uid="{01DBDDE2-32E1-4266-A6A7-FDED7088E189}"/>
+    <hyperlink ref="O21" r:id="rId1" xr:uid="{9E307C65-887C-5044-8DB8-E71EB3F10045}"/>
+    <hyperlink ref="O14" r:id="rId2" xr:uid="{4A81FE9A-EBAB-0747-B2F3-61D7490B1D68}"/>
+    <hyperlink ref="O18" r:id="rId3" xr:uid="{448DA057-37C3-3B4D-9D30-C27C2FD902D3}"/>
+    <hyperlink ref="O23" r:id="rId4" xr:uid="{85DCA030-31D8-4740-B777-FBA97285460E}"/>
+    <hyperlink ref="O27" r:id="rId5" xr:uid="{5A40EFE8-502D-2149-ACBE-311EA5579DF3}"/>
+    <hyperlink ref="O17" r:id="rId6" xr:uid="{7E0B92DD-CBCC-8F46-B940-A199BDE9BF18}"/>
+    <hyperlink ref="O25" r:id="rId7" xr:uid="{6A6E0364-629D-FF44-817A-6C9F4E3C32C0}"/>
+    <hyperlink ref="O32" r:id="rId8" xr:uid="{7DAAB33D-9347-8F48-A5B6-88CA9022F3F4}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{3FEE33F3-63FD-49C4-92AB-1042A2591AA6}"/>
+    <hyperlink ref="O11" r:id="rId10" xr:uid="{7CBE67B6-B9B5-45EE-9470-F4AA5E5FF358}"/>
+    <hyperlink ref="N7" r:id="rId11" xr:uid="{7712592D-C212-4A93-BA25-D4658CFA663A}"/>
+    <hyperlink ref="O7" r:id="rId12" xr:uid="{E70F50EC-A19F-4DA1-9215-7A17F732F801}"/>
+    <hyperlink ref="N41" r:id="rId13" xr:uid="{56DE9EB8-7714-4395-9CD4-AF9B7F618754}"/>
+    <hyperlink ref="O41" r:id="rId14" xr:uid="{C79E0D61-6BF8-4D23-9016-8FA43E7BA486}"/>
+    <hyperlink ref="N9" r:id="rId15" xr:uid="{5B38EE64-6D4D-430D-9621-00ED2C8B8D7A}"/>
+    <hyperlink ref="O9" r:id="rId16" xr:uid="{01DBDDE2-32E1-4266-A6A7-FDED7088E189}"/>
     <hyperlink ref="N3" r:id="rId17" xr:uid="{D7196034-9BFC-401F-8AD8-444A5A8F0488}"/>
     <hyperlink ref="O3" r:id="rId18" xr:uid="{EBB06DFB-D7BE-4833-AFA8-B29F5EB78FCE}"/>
-    <hyperlink ref="N19" r:id="rId19" xr:uid="{75085428-AD2A-4222-ACFA-ED2B329717F2}"/>
-    <hyperlink ref="O19" r:id="rId20" xr:uid="{8AD637F9-AD2E-42B3-9D8D-76C11471058D}"/>
-    <hyperlink ref="N11" r:id="rId21" xr:uid="{120B96FF-057F-4C8A-B466-35389F9A4CD8}"/>
-    <hyperlink ref="O11" r:id="rId22" xr:uid="{BC0B539C-D47A-4142-91C2-D1991320DA6E}"/>
-    <hyperlink ref="N7" r:id="rId23" xr:uid="{B153E7EE-184D-4F41-8EAC-022CA1AFC245}"/>
-    <hyperlink ref="O7" r:id="rId24" xr:uid="{53635958-96CA-44CA-B081-1F20CB88B225}"/>
-    <hyperlink ref="N38" r:id="rId25" xr:uid="{BC598059-63C8-462E-852A-A0B1E342929A}"/>
-    <hyperlink ref="O38" r:id="rId26" xr:uid="{31B14771-D13B-4480-85D7-DFC9490D3475}"/>
-    <hyperlink ref="O41" r:id="rId27" xr:uid="{FD117BD8-3AF2-4B01-B279-EDBCF98F0DDE}"/>
-    <hyperlink ref="O42" r:id="rId28" xr:uid="{D4A3CA04-CD4C-4338-BACB-FD95FC1D4844}"/>
-    <hyperlink ref="O43" r:id="rId29" xr:uid="{F7DE7C11-9447-465E-812A-ADFF452D4D5F}"/>
-    <hyperlink ref="O44" r:id="rId30" xr:uid="{9247102E-9B8B-4C42-93C3-183D39CC5612}"/>
-    <hyperlink ref="O45" r:id="rId31" xr:uid="{4552F4D7-9ACE-49A0-B879-F760CCA821F2}"/>
-    <hyperlink ref="O46" r:id="rId32" xr:uid="{D337D896-75C9-437F-8A98-6A815843CEB1}"/>
-    <hyperlink ref="O47" r:id="rId33" xr:uid="{07551572-0A8E-421C-B666-8652DBC5B3EA}"/>
-    <hyperlink ref="O48" r:id="rId34" xr:uid="{71B3F31B-1BE4-438D-9EB9-F1FDD66C816C}"/>
-    <hyperlink ref="O49" r:id="rId35" xr:uid="{9F5CDBFE-7EB2-412A-B6E5-CE95649DCD2E}"/>
+    <hyperlink ref="N22" r:id="rId19" xr:uid="{75085428-AD2A-4222-ACFA-ED2B329717F2}"/>
+    <hyperlink ref="O22" r:id="rId20" xr:uid="{8AD637F9-AD2E-42B3-9D8D-76C11471058D}"/>
+    <hyperlink ref="N13" r:id="rId21" xr:uid="{120B96FF-057F-4C8A-B466-35389F9A4CD8}"/>
+    <hyperlink ref="O13" r:id="rId22" xr:uid="{BC0B539C-D47A-4142-91C2-D1991320DA6E}"/>
+    <hyperlink ref="N8" r:id="rId23" xr:uid="{B153E7EE-184D-4F41-8EAC-022CA1AFC245}"/>
+    <hyperlink ref="O8" r:id="rId24" xr:uid="{53635958-96CA-44CA-B081-1F20CB88B225}"/>
+    <hyperlink ref="N47" r:id="rId25" xr:uid="{BC598059-63C8-462E-852A-A0B1E342929A}"/>
+    <hyperlink ref="O47" r:id="rId26" xr:uid="{31B14771-D13B-4480-85D7-DFC9490D3475}"/>
+    <hyperlink ref="O30" r:id="rId27" xr:uid="{FD117BD8-3AF2-4B01-B279-EDBCF98F0DDE}"/>
+    <hyperlink ref="O6" r:id="rId28" xr:uid="{D4A3CA04-CD4C-4338-BACB-FD95FC1D4844}"/>
+    <hyperlink ref="O44" r:id="rId29" xr:uid="{F7DE7C11-9447-465E-812A-ADFF452D4D5F}"/>
+    <hyperlink ref="O26" r:id="rId30" xr:uid="{9247102E-9B8B-4C42-93C3-183D39CC5612}"/>
+    <hyperlink ref="O12" r:id="rId31" xr:uid="{4552F4D7-9ACE-49A0-B879-F760CCA821F2}"/>
+    <hyperlink ref="O34" r:id="rId32" xr:uid="{D337D896-75C9-437F-8A98-6A815843CEB1}"/>
+    <hyperlink ref="O39" r:id="rId33" xr:uid="{07551572-0A8E-421C-B666-8652DBC5B3EA}"/>
+    <hyperlink ref="O19" r:id="rId34" xr:uid="{71B3F31B-1BE4-438D-9EB9-F1FDD66C816C}"/>
+    <hyperlink ref="O28" r:id="rId35" xr:uid="{9F5CDBFE-7EB2-412A-B6E5-CE95649DCD2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId36"/>
